--- a/biology/Botanique/Brêlage/Brêlage.xlsx
+++ b/biology/Botanique/Brêlage/Brêlage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%AAlage</t>
+          <t>Brêlage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme brêlage désigne une technique d'assemblage de morceaux de bois à l'aide de cordes. Le brêlage commence en fixant la corde à un des morceaux de bois, en général avec un nœud de cabestan ou un nœud de bois. Puis on effectue des circulaires autour de morceaux de bois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%AAlage</t>
+          <t>Brêlage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot vient du terme braie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot vient du terme braie.
 Le terme « brêlage » et le verbe « brêler » veulent dire « assembler avec des cordages ». Ils s'emploient aussi pour exprimer l'action de sangler des bateaux (canoës ou kayaks) sur une remorque attelée à cet effet.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%AAlage</t>
+          <t>Brêlage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue plusieurs types de brêlage :
 le brêlage carré, qui permet de fixer des perches à angle droit (il s'appelle aussi « brêlage droit ») ;
